--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s3_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s3_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1181.894887231442</v>
+        <v>1086.367917189358</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.73637742065376</v>
+        <v>33.42003702099418</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.90965391522186</v>
+        <v>12.30962950827948</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.778163726017305</v>
+        <v>5.257509676643497</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>734.3699999999926</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>422.92</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,34 +617,12 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -824,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +824,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -918,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.894440469094175</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -934,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>20.84866676379884</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.666983483893066</v>
+        <v>14.61296311465065</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.33301651610693</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>25.57537733795152</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +944,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.01606971056828</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,13 +990,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1026,13 +1004,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1040,13 +1018,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1054,13 +1032,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1068,13 +1046,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1082,13 +1060,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1096,13 +1074,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1110,57 +1088,15 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1263,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>50.75499999999964</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
@@ -1274,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.12499999999963</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1285,7 +1221,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>49.95499999999964</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>48.15499999999963</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -1307,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>48.96999999999964</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1318,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>129.2649999999994</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -1329,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>138.0899999999994</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -1340,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>128.1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -1351,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>134.85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -1362,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>131.9249999999994</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1373,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>168.9549999999993</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
@@ -1384,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>169.6699999999992</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
@@ -1395,7 +1331,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>163.7149999999993</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
@@ -1406,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>165.5699999999993</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
@@ -1417,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>167.3349999999993</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22">
@@ -1428,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>55.62000000000029</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
@@ -1439,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>59.11000000000029</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
@@ -1450,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.63000000000029</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
@@ -1461,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>59.33000000000029</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -1472,7 +1408,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>57.65</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -1483,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.595</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -1494,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>104.555</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -1505,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>101.99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
@@ -1516,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>114.65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
@@ -1527,7 +1463,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>109.15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
@@ -1538,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>168.9549999999993</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -1549,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>169.6699999999992</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -1560,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>163.7149999999993</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -1571,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>165.5699999999993</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
@@ -1582,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>167.3349999999993</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1593,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>101.595</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38">
@@ -1604,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>104.555</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39">
@@ -1615,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>101.99</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40">
@@ -1626,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>114.65</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41">
@@ -1637,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>109.15</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1684,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>68.95499999999927</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1695,7 +1631,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>69.66999999999925</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1706,7 +1642,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>63.71499999999929</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1717,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>65.56999999999925</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1728,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>67.33499999999927</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1739,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.595</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -1750,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>4.555</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -1761,7 +1697,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1.99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1772,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>14.65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -1783,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>9.15</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.965</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1841,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.315</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1852,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1863,7 +1799,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1874,7 +1810,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.215</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1885,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1896,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1907,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1918,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1929,7 +1865,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1940,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1951,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1962,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1973,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1984,7 +1920,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1995,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2006,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>17.095</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2017,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>21.56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2028,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>11.26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2039,7 +1975,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>16.935</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2050,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2061,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2072,7 +2008,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2083,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2094,7 +2030,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2108,7 +2044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2135,7 +2071,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2146,7 +2082,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2157,7 +2093,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2168,7 +2104,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2179,7 +2115,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2245,10 +2181,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2256,10 +2192,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2267,10 +2203,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2278,23 +2214,12 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
